--- a/sorensenLab/relatedToDlg2/design20230321_dlg2LongHibit/oligosDesignWorkbook.xlsx
+++ b/sorensenLab/relatedToDlg2/design20230321_dlg2LongHibit/oligosDesignWorkbook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -81,6 +81,84 @@
   </si>
   <si>
     <t>sequence whole vector</t>
+  </si>
+  <si>
+    <t>cggctggcggctgttcaagaagattagcATGTTCTTTGCATGTtactgtgcact</t>
+  </si>
+  <si>
+    <t>dlg2LongHibit_fwd2</t>
+  </si>
+  <si>
+    <t>dlg2LongHibit_rev2</t>
+  </si>
+  <si>
+    <t>cttgaacagccgccagccgctcaccatGGTGGCccgatgagc</t>
+  </si>
+  <si>
+    <t>dlg2ShortCwInsert_rev1</t>
+  </si>
+  <si>
+    <t>dlg2ShortCwInsert_fwd1</t>
+  </si>
+  <si>
+    <t>dlg2ShortCwVector_fwd1</t>
+  </si>
+  <si>
+    <t>dlg2ShortCwVector_rev1</t>
+  </si>
+  <si>
+    <t>GGATCCGGGGTTGGGGTT</t>
+  </si>
+  <si>
+    <t>GGTGGCGCTAGCCAATTC</t>
+  </si>
+  <si>
+    <t>gagaattggctagcgccaccATGGTGAGCGGCTGGCGG</t>
+  </si>
+  <si>
+    <t>gcaaccccaaccccggatccTTATAACTTTTCCTTTGAGGGAATCCAGATGAAAGGC</t>
+  </si>
+  <si>
+    <t>pCW-DLG2short-Hibit</t>
+  </si>
+  <si>
+    <t>dlg2Short with gibson ends for the other short part</t>
+  </si>
+  <si>
+    <t>dlg2LongCwInsert_fwd1</t>
+  </si>
+  <si>
+    <t>dlg2LongCwInsert_rev1</t>
+  </si>
+  <si>
+    <t>pLvx-DLG2long-Hibit</t>
+  </si>
+  <si>
+    <t>these are the same primers as the short ones</t>
+  </si>
+  <si>
+    <t>pLvx-DLG2short-Hibit</t>
+  </si>
+  <si>
+    <t>gctaatcttcttgaacagccgccagccgctcacCATGGTGGCTTAATTAATCAC</t>
+  </si>
+  <si>
+    <t>gtgagcggctggcggctgttcaagaagattagcTTCTTTGCATGTTACTGTG</t>
+  </si>
+  <si>
+    <t>dlg2LongLeft_fwd3</t>
+  </si>
+  <si>
+    <t>dlg2LongLeft_rev3</t>
+  </si>
+  <si>
+    <t>dlg2LongRight_fwd3</t>
+  </si>
+  <si>
+    <t>dlg2LongRight_rev3</t>
+  </si>
+  <si>
+    <t>ggtctgacagTTACCAATGCTTAATCAGTG</t>
   </si>
 </sst>
 </file>
@@ -437,13 +515,13 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
@@ -485,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C7" si="0">LEN(B2)</f>
+        <f t="shared" ref="C2:C19" si="0">LEN(B2)</f>
         <v>35</v>
       </c>
       <c r="D2" s="6">
@@ -573,17 +651,43 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D7" s="6">
+        <v>68</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
@@ -591,33 +695,199 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6">
+        <v>7613</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="3">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1092</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D13" s="3">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2595</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="3">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3437</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="8"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D18" s="3">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7738</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
